--- a/2_Part2_Implementation/2.3_Documents/2.3.2_RequirementsTracing/RequirementsTracing.xlsx
+++ b/2_Part2_Implementation/2.3_Documents/2.3.2_RequirementsTracing/RequirementsTracing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="15260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="25500" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,167 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
+    <t>All operators must login to the system with a username and password to access the system</t>
+  </si>
+  <si>
+    <t>Line 194 - 223</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static boolean loginAdmin() and public static boolean loginUser()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authentication is done programatically using static strings, and equalsignorecase method of the string class. An unsecure method, however it fits the requirements</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log operator onto the system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record the operator's bookings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Book seats up to 6 hours before the film </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method which satisfies requirement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>public Booking(int,int,int,int,double,String)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Booking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line 30 - 38</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record a log of the bookings by each operator.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel Bookings</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer’s bookings can be cancelled via request of the operator, they require details of customer and film times and payment details for a refund</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operators can view which seats are available. It is possible for customers to request which seats are available for booking.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different prices for premium seats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rows H and I are premium seats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store film information</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software colour scheme to be red, white and green</t>
+  </si>
+  <si>
+    <t>Minimise number of steps to complete booking to keep it as simple as possible</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book up to 10 seats in one booking (1 row) Peak Times are fixed on Saturdays and Sundays between 12-4 and 6-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Able to set prices of premium seats as a percentage increase of the costs for standard seating</t>
+  </si>
+  <si>
+    <t>File name and age rating for each film as text information</t>
+  </si>
+  <si>
+    <t>Check customer is correct age for viewing the film</t>
+  </si>
+  <si>
+    <t>View which seats are available</t>
+  </si>
+  <si>
     <t>toString() method enters a loop which prints out the lseats row by row, an empty seat - denoted by [ ] is printed if the seat is empty. And a [X] is printed if the seat is taken. The listByBooking() method loops through the collection of bookings with an enhanced for loop and prints all the bookings from all screens by booking ID and seat reference</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -111,167 +272,6 @@
   <si>
     <t>3.5.2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log operator onto the system</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Record the operator's bookings</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Book seats up to 6 hours before the film </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Requirement ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Requirement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method which satisfies requirement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main method</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line 85 - 243</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>public Booking(int,int,int,int,double,String)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main method on the Main class, verification is done programatically using String method equalsignorecase(String) - Unsecure, but satisfies the requirement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Booking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line 30 - 38</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Record a log of the bookings by each operator.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel Bookings</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer’s bookings can be cancelled via request of the operator, they require details of customer and film times and payment details for a refund</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operators can view which seats are available. It is possible for customers to request which seats are available for booking.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Different prices for premium seats</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rows H and I are premium seats</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store film information</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Software colour scheme to be red, white and green</t>
-  </si>
-  <si>
-    <t>Minimise number of steps to complete booking to keep it as simple as possible</t>
-  </si>
-  <si>
-    <t>3.1.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Book up to 10 seats in one booking (1 row) Peak Times are fixed on Saturdays and Sundays between 12-4 and 6-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Able to set prices of premium seats as a percentage increase of the costs for standard seating</t>
-  </si>
-  <si>
-    <t>File name and age rating for each film as text information</t>
-  </si>
-  <si>
-    <t>Check customer is correct age for viewing the film</t>
-  </si>
-  <si>
-    <t>View which seats are available</t>
-  </si>
-  <si>
-    <t>All operators must login to the system with a username and password to access the system</t>
   </si>
 </sst>
 </file>
@@ -319,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -458,45 +458,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -618,17 +579,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1009,295 +970,295 @@
     <row r="2" spans="1:9" s="15" customFormat="1">
       <c r="A2" s="19"/>
       <c r="B2" s="26" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="78" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="205" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="62" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="167" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="31" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" customHeight="1">
       <c r="A9" s="20"/>
       <c r="B9" s="8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="10" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="85" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="83" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="35" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="10"/>
@@ -1309,10 +1270,10 @@
     <row r="14" spans="1:9" ht="34" customHeight="1" thickBot="1">
       <c r="A14" s="21"/>
       <c r="B14" s="11" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13"/>
@@ -1396,12 +1357,9 @@
     <row r="40" spans="2:2">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:2" ht="14"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/2_Part2_Implementation/2.3_Documents/2.3.2_RequirementsTracing/RequirementsTracing.xlsx
+++ b/2_Part2_Implementation/2.3_Documents/2.3.2_RequirementsTracing/RequirementsTracing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="25500" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25500" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>All operators must login to the system with a username and password to access the system</t>
   </si>
@@ -272,6 +272,18 @@
   <si>
     <t>3.5.2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static boolean advancedBooking() throws Exception</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Line 243 - 285</t>
+  </si>
+  <si>
+    <t>When an advanced booking is made, the operator must enter the customers' details into the system. The booking is then made using the customers details. If the rating of the showing is greater than the customers' age, the booking is rejected.</t>
   </si>
 </sst>
 </file>
@@ -936,27 +948,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:I9"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" thickBot="1">
+    <row r="1" spans="1:9" ht="13.5" thickBot="1">
       <c r="A1" s="14"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -994,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="94" customHeight="1">
+    <row r="3" spans="1:9" ht="93.95" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
         <v>21</v>
@@ -1044,7 +1056,7 @@
       </c>
       <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="205" customHeight="1">
+    <row r="5" spans="1:9" ht="204.95" customHeight="1">
       <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
         <v>36</v>
@@ -1069,7 +1081,7 @@
       </c>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="62" customHeight="1">
+    <row r="6" spans="1:9" ht="62.1" customHeight="1">
       <c r="A6" s="20"/>
       <c r="B6" s="8" t="s">
         <v>22</v>
@@ -1096,7 +1108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="167" customHeight="1">
+    <row r="7" spans="1:9" ht="167.1" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="8" t="s">
         <v>25</v>
@@ -1121,7 +1133,7 @@
       </c>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" ht="31" customHeight="1">
+    <row r="8" spans="1:9" ht="30.95" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="8" t="s">
         <v>27</v>
@@ -1173,7 +1185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="85" customHeight="1">
+    <row r="10" spans="1:9" ht="84.95" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
         <v>31</v>
@@ -1198,7 +1210,7 @@
       </c>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:9" ht="83" customHeight="1">
+    <row r="11" spans="1:9" ht="105" customHeight="1">
       <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>33</v>
@@ -1209,23 +1221,23 @@
       <c r="D11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>45</v>
+      <c r="E11" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="35" customHeight="1">
+    <row r="12" spans="1:9" ht="35.1" customHeight="1">
       <c r="A12" s="20"/>
       <c r="B12" s="8" t="s">
         <v>60</v>
@@ -1252,7 +1264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32" customHeight="1">
+    <row r="13" spans="1:9" ht="32.1" customHeight="1">
       <c r="A13" s="20"/>
       <c r="B13" s="8" t="s">
         <v>63</v>
@@ -1267,7 +1279,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:9" ht="34" customHeight="1" thickBot="1">
+    <row r="14" spans="1:9" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="A14" s="21"/>
       <c r="B14" s="11" t="s">
         <v>64</v>
@@ -1282,79 +1294,79 @@
       <c r="H14" s="7"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="16">
+    <row r="16" spans="1:9" ht="18.75">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" ht="15">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" ht="15">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2" ht="15">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" ht="15">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" ht="14">
+    <row r="21" spans="2:2" ht="15">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" ht="15">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" ht="14">
+    <row r="23" spans="2:2" ht="15">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" ht="14">
+    <row r="24" spans="2:2" ht="15">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" ht="15">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2" ht="14">
+    <row r="26" spans="2:2" ht="15">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" ht="15">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2" ht="14">
+    <row r="28" spans="2:2" ht="15">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" ht="14">
+    <row r="29" spans="2:2" ht="15">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" ht="15">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" ht="14">
+    <row r="31" spans="2:2" ht="15">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" ht="15">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" ht="15">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" ht="14">
+    <row r="34" spans="2:2" ht="15">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" ht="15">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" ht="14">
+    <row r="36" spans="2:2" ht="15">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" ht="15">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="2:2" ht="14">
+    <row r="38" spans="2:2" ht="15">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" ht="15">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" ht="15">
       <c r="B40" s="2"/>
     </row>
   </sheetData>
